--- a/biology/Botanique/Jardin_botanique_de_Barcelone/Jardin_botanique_de_Barcelone.xlsx
+++ b/biology/Botanique/Jardin_botanique_de_Barcelone/Jardin_botanique_de_Barcelone.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le jardin botanique de Barcelone est le centre de référence de la flore méditerranéenne en Catalogne. Créé en 1999, il est situé sur la pente du parc de Montjuïc, comme le jardin botanique historique de Barcelone (créé en 1930). Ces deux jardins font partie intégrante du musée des Sciences naturelles de Barcelone.
 </t>
@@ -511,10 +523,12 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le premier jardin botanique de Barcelone a été créé en 1930 dans les trous laissés par d'anciennes carrières de pierres dans la partie haute de la colline de Montjuïc sur un terrain en forte pente. La guerre d'Espagne (1936-1939) retarda son ouverture au public, qui n'eut lieu qu'en 1941. Ce jardin accueille les collections des plantes des Pyrénées et des iles Baléares, ce qui lui a permis très rapidement de jouer un rôle de conservatoire de la biodiversité. Il a été fermé en 1986 avec le lancement des travaux des installations sportives destinées aux Jeux olympiques de Barcelone de 1992, mais il a rouvert en 2003.
-Entretemps, un nouveau jardin botanique avait été créé et inauguré en 1999, qui prit le nom de jardin botanique de Barcelone, le jardin créé en 1930 devenant alors le jardin botanique historique de Barcelone[1]. En 2008 les deux jardins ont intégré le musée des Sciences naturelles de Barcelone[2].
+Entretemps, un nouveau jardin botanique avait été créé et inauguré en 1999, qui prit le nom de jardin botanique de Barcelone, le jardin créé en 1930 devenant alors le jardin botanique historique de Barcelone. En 2008 les deux jardins ont intégré le musée des Sciences naturelles de Barcelone.
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Flore méditerranéenne</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est une végétation liée au climat méditerranéen, qui se caractérise par un long été sec, des hivers doux et des pluies au printemps et durant l'automne. Ce climat ne se retrouve que sur 5 % de la surface de la terre mais dans cinq régions du monde, dans lesquelles les plantes ont eu une évolution adaptative spécifique qui pourtant donne des paysages assez semblables.
 Les sentiers permettent de circuler de zone en zone, en commençant par les îles Canaries situées à l'entrée et de monter jusqu'à la méditerranée occidentale surplombée par l'institut botanique.
@@ -588,7 +604,9 @@
           <t>Institut botanique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est spécialisé dans l'étude de la flore méditerranéenne.
 Sa bibliothèque a été créée en 1916.
